--- a/Data/Original_Data.xlsx
+++ b/Data/Original_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\GitHub\Balance_and_gait\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBF7A7-8208-4650-BA07-B658BAA7C14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497AE43-A066-4664-AF66-2A06784C8FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -524,10 +524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -870,7 +870,8 @@
   <dimension ref="A1:EL288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -880,7 +881,7 @@
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
@@ -46060,27 +46061,27 @@
       </c>
     </row>
     <row r="106" spans="1:142" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="A106" s="7">
+        <v>17</v>
+      </c>
+      <c r="B106" s="7">
         <v>2</v>
       </c>
-      <c r="C106" s="1" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106" s="7">
+        <v>15</v>
+      </c>
+      <c r="D106" s="7">
         <v>2</v>
       </c>
       <c r="E106" cm="1">
         <f t="array" ref="E106">_xlfn.IFS(AND(D106=2,B106=2),1,AND(D106=2,B106=1),2, AND(D106=1,B106=2),3, AND(D106=1,B106=1),4)</f>
         <v>1</v>
       </c>
-      <c r="F106" s="1" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="G106" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="F106" s="7">
+        <v>23</v>
+      </c>
+      <c r="G106" s="7">
+        <v>1</v>
       </c>
       <c r="H106" s="5">
         <v>175.26</v>
@@ -58075,14 +58076,18 @@
       <c r="A134" s="7">
         <v>10</v>
       </c>
-      <c r="B134" s="7"/>
+      <c r="B134" s="7">
+        <v>2</v>
+      </c>
       <c r="C134" s="7">
         <v>6</v>
       </c>
-      <c r="D134" s="7"/>
-      <c r="E134" t="e" cm="1">
+      <c r="D134" s="7">
+        <v>2</v>
+      </c>
+      <c r="E134" cm="1">
         <f t="array" ref="E134">_xlfn.IFS(AND(D134=2,B134=2),1,AND(D134=2,B134=1),2, AND(D134=1,B134=2),3, AND(D134=1,B134=1),4)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="F134" s="7">
         <v>25</v>
@@ -58491,14 +58496,18 @@
       <c r="A135" s="7">
         <v>2</v>
       </c>
-      <c r="B135" s="7"/>
+      <c r="B135" s="7">
+        <v>1</v>
+      </c>
       <c r="C135" s="7">
         <v>1</v>
       </c>
-      <c r="D135" s="7"/>
-      <c r="E135" t="e" cm="1">
+      <c r="D135" s="7">
+        <v>1</v>
+      </c>
+      <c r="E135" cm="1">
         <f t="array" ref="E135">_xlfn.IFS(AND(D135=2,B135=2),1,AND(D135=2,B135=1),2, AND(D135=1,B135=2),3, AND(D135=1,B135=1),4)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F135" s="7">
         <v>26</v>
